--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gulzhaina/IdeaProject/CopyPasteBriteERP/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189815F-F1B1-C240-9209-478C60A4AB6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75B695-B29C-9C40-A687-EB82E6BB6147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" xr2:uid="{2C8CCED1-D99C-E241-A502-400570692F02}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>invoiceStatusDraft</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Please create some invoice lines.</t>
+  </si>
+  <si>
+    <t>srdfghjkjhgvgbhnjk</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +503,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
